--- a/TP2/Calculos Flyback E4.xlsx
+++ b/TP2/Calculos Flyback E4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico Bustelo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad ITBA\Año 5\Cuatrimestre 1\E4\TPs-G1_E4\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F61B7E5-933E-4BB5-A1BB-1213AD8B0516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358171F-57C2-4596-BA7C-51C5B4F40333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4020" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bsat" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Parametros</t>
   </si>
@@ -348,21 +348,31 @@
   <si>
     <t>Lm3</t>
   </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="180" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -432,6 +442,22 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -666,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,7 +780,7 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,20 +797,10 @@
     </xf>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,9 +813,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,13 +830,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +848,27 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,13 +1222,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54AFA82-B5FE-4171-A06E-73AD90B8356A}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
@@ -1207,11 +1241,11 @@
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>64</v>
       </c>
@@ -1228,14 +1262,14 @@
       <c r="F2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
@@ -1250,15 +1284,18 @@
       <c r="F3" s="24">
         <v>310</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="51">
         <f>B21</f>
         <v>2.5329748128030518E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="J3" s="65">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>67</v>
       </c>
@@ -1273,15 +1310,18 @@
       <c r="F4" s="25">
         <v>16</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="52">
         <f>(B10^2)/B15</f>
         <v>1.5182034257799769E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="65">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>68</v>
       </c>
@@ -1296,15 +1336,18 @@
       <c r="F5" s="26">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="53">
         <f>F10^2/B15</f>
         <v>1.0796113249990949E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="J5" s="65">
+        <v>1.8799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>69</v>
       </c>
@@ -1320,15 +1363,15 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="54">
         <f>B8</f>
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>34</v>
       </c>
@@ -1344,15 +1387,15 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="55">
         <f>B10</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
@@ -1369,19 +1412,19 @@
         <v>124</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="56">
         <f>F10</f>
         <v>25.6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="41">
         <f>B4/B3*(1/B7-1)</f>
         <v>7.7419354838709681E-2</v>
       </c>
@@ -1390,7 +1433,7 @@
       <c r="E9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="41">
         <f>F4/F3*(1/F7-1)</f>
         <v>0.20645161290322581</v>
       </c>
@@ -1398,11 +1441,11 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="64">
         <f>B9*B8</f>
         <v>9.6</v>
       </c>
@@ -1411,7 +1454,7 @@
       <c r="E10" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="63">
         <f>F9*F8</f>
         <v>25.6</v>
       </c>
@@ -1419,7 +1462,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>72</v>
       </c>
@@ -1438,7 +1481,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>73</v>
       </c>
@@ -1457,7 +1500,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>74</v>
       </c>
@@ -1476,13 +1519,18 @@
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="I13" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="61">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="40">
         <v>260</v>
       </c>
       <c r="C14" s="25"/>
@@ -1490,14 +1538,23 @@
       <c r="E14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="40">
         <v>260</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="61">
+        <f>J13*B9</f>
+        <v>0.19277419354838712</v>
+      </c>
+      <c r="K14">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
@@ -1516,9 +1573,18 @@
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="I15" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="61">
+        <f>J13*F9</f>
+        <v>0.51406451612903226</v>
+      </c>
+      <c r="K15">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
@@ -1564,7 +1630,7 @@
       <c r="A18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="42">
         <f>B16+B17</f>
         <v>0.14050803553255056</v>
       </c>
@@ -1575,7 +1641,7 @@
       <c r="E18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="42">
         <f>F16+F17</f>
         <v>8.559616394039285E-2</v>
       </c>
@@ -1587,7 +1653,7 @@
       <c r="A19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="40">
         <v>0.2</v>
       </c>
       <c r="C19" s="25"/>
@@ -1595,7 +1661,7 @@
       <c r="E19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="40">
         <v>0.2</v>
       </c>
       <c r="G19" s="22"/>
@@ -1625,14 +1691,14 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="44">
         <f>B8^2/B15</f>
         <v>2.5329748128030518E-3</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
         <v>82</v>
@@ -1830,6 +1896,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1844,7 +1911,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1864,10 +1931,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2051,10 +2118,10 @@
         <f>H3/(1-E3)</f>
         <v>3.75</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
@@ -2247,7 +2314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -2453,15 +2520,15 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2992,15 +3059,15 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
